--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1917.101793597634</v>
+        <v>331.6225684338858</v>
       </c>
       <c r="R2">
-        <v>17253.91614237871</v>
+        <v>2984.603115904973</v>
       </c>
       <c r="S2">
-        <v>0.004772119685651453</v>
+        <v>0.001503933551129223</v>
       </c>
       <c r="T2">
-        <v>0.004772119685651453</v>
+        <v>0.001503933551129224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>2107.785344827806</v>
+        <v>384.1970133870072</v>
       </c>
       <c r="R3">
-        <v>18970.06810345025</v>
+        <v>3457.773120483065</v>
       </c>
       <c r="S3">
-        <v>0.005246776134043683</v>
+        <v>0.001742362654644111</v>
       </c>
       <c r="T3">
-        <v>0.005246776134043683</v>
+        <v>0.001742362654644111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1168.307928609046</v>
+        <v>291.6218759988125</v>
       </c>
       <c r="R4">
-        <v>10514.77135748142</v>
+        <v>2624.596883989312</v>
       </c>
       <c r="S4">
-        <v>0.002908194694531728</v>
+        <v>0.0013225273708876</v>
       </c>
       <c r="T4">
-        <v>0.002908194694531728</v>
+        <v>0.0013225273708876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>850.2371946116468</v>
+        <v>149.6756792208273</v>
       </c>
       <c r="R5">
-        <v>7652.134751504822</v>
+        <v>1347.081112987446</v>
       </c>
       <c r="S5">
-        <v>0.002116441426026274</v>
+        <v>0.0006787905806028852</v>
       </c>
       <c r="T5">
-        <v>0.002116441426026274</v>
+        <v>0.0006787905806028853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>7075.438089552021</v>
+        <v>6714.669424688649</v>
       </c>
       <c r="R6">
-        <v>63678.94280596818</v>
+        <v>60432.02482219784</v>
       </c>
       <c r="S6">
-        <v>0.01761243847589136</v>
+        <v>0.03045153615515796</v>
       </c>
       <c r="T6">
-        <v>0.01761243847589136</v>
+        <v>0.03045153615515797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>7779.192927156728</v>
@@ -883,10 +883,10 @@
         <v>70012.73634441054</v>
       </c>
       <c r="S7">
-        <v>0.01936425067784204</v>
+        <v>0.03527923114252887</v>
       </c>
       <c r="T7">
-        <v>0.01936425067784203</v>
+        <v>0.03527923114252888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>4311.868282640089</v>
+        <v>5904.738340297722</v>
       </c>
       <c r="R8">
-        <v>38806.8145437608</v>
+        <v>53142.64506267949</v>
       </c>
       <c r="S8">
-        <v>0.01073325974773022</v>
+        <v>0.02677843713276488</v>
       </c>
       <c r="T8">
-        <v>0.01073325974773022</v>
+        <v>0.02677843713276488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>3137.966200855639</v>
+        <v>3030.622166729773</v>
       </c>
       <c r="R9">
-        <v>28241.69580770075</v>
+        <v>27275.59950056795</v>
       </c>
       <c r="S9">
-        <v>0.007811139883141243</v>
+        <v>0.01374410185309667</v>
       </c>
       <c r="T9">
-        <v>0.007811139883141243</v>
+        <v>0.01374410185309668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>16121.16211312513</v>
+        <v>6001.065885142481</v>
       </c>
       <c r="R10">
-        <v>145090.4590181262</v>
+        <v>54009.59296628233</v>
       </c>
       <c r="S10">
-        <v>0.040129384538967</v>
+        <v>0.02721528986951949</v>
       </c>
       <c r="T10">
-        <v>0.040129384538967</v>
+        <v>0.0272152898695195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>17724.64527294172</v>
+        <v>6952.456827949735</v>
       </c>
       <c r="R11">
-        <v>159521.8074564755</v>
+        <v>62572.11145154762</v>
       </c>
       <c r="S11">
-        <v>0.04412083328630325</v>
+        <v>0.03152992010076551</v>
       </c>
       <c r="T11">
-        <v>0.04412083328630324</v>
+        <v>0.03152992010076552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>9824.455633005826</v>
+        <v>5277.210473588811</v>
       </c>
       <c r="R12">
-        <v>88420.10069705243</v>
+        <v>47494.8942622993</v>
       </c>
       <c r="S12">
-        <v>0.02445539317925046</v>
+        <v>0.02393255056518577</v>
       </c>
       <c r="T12">
-        <v>0.02445539317925046</v>
+        <v>0.02393255056518578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>7149.756833319147</v>
+        <v>2708.541872314427</v>
       </c>
       <c r="R13">
-        <v>64347.81149987232</v>
+        <v>24376.87685082984</v>
       </c>
       <c r="S13">
-        <v>0.01779743540267344</v>
+        <v>0.01228344323985339</v>
       </c>
       <c r="T13">
-        <v>0.01779743540267344</v>
+        <v>0.01228344323985339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>102323.245737249</v>
+        <v>50147.5643274481</v>
       </c>
       <c r="R14">
-        <v>920909.2116352407</v>
+        <v>451328.0789470329</v>
       </c>
       <c r="S14">
-        <v>0.2547067541813391</v>
+        <v>0.2274230154347776</v>
       </c>
       <c r="T14">
-        <v>0.2547067541813391</v>
+        <v>0.2274230154347776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>112500.7751390451</v>
+        <v>58097.80840377114</v>
       </c>
       <c r="R15">
-        <v>1012506.976251406</v>
+        <v>522880.2756339402</v>
       </c>
       <c r="S15">
-        <v>0.2800410314595761</v>
+        <v>0.2634779765386456</v>
       </c>
       <c r="T15">
-        <v>0.2800410314595761</v>
+        <v>0.2634779765386457</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>62357.17877635564</v>
+        <v>44098.70792270006</v>
       </c>
       <c r="R16">
-        <v>561214.6089872007</v>
+        <v>396888.3713043004</v>
       </c>
       <c r="S16">
-        <v>0.1552217630665832</v>
+        <v>0.1999909919267722</v>
       </c>
       <c r="T16">
-        <v>0.1552217630665832</v>
+        <v>0.1999909919267722</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>45380.49554266718</v>
+        <v>22633.77546174858</v>
       </c>
       <c r="R17">
-        <v>408424.4598840046</v>
+        <v>203703.9791557372</v>
       </c>
       <c r="S17">
-        <v>0.1129627841604494</v>
+        <v>0.1026458918836683</v>
       </c>
       <c r="T17">
-        <v>0.1129627841604494</v>
+        <v>0.1026458918836683</v>
       </c>
     </row>
   </sheetData>
